--- a/DATABASE_CORRUPÇÃO.xlsx
+++ b/DATABASE_CORRUPÇÃO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="217">
   <si>
     <t>wdi_wip</t>
   </si>
@@ -652,6 +652,39 @@
   </si>
   <si>
     <t>Missing Data</t>
+  </si>
+  <si>
+    <t>Nomenclatura R</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>ht_region</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>1. Eastern Europe and post Soviet Union (including Central Asia)
+2. Latin America (including Cuba, Haiti &amp; the Dominican Republic)
+3. North Africa &amp; the Middle East (including Israel, Turkey &amp; Cyprus)
+4. Sub-Saharan Africa
+5. Western Europe and North America (including Australia &amp;New Zeeland)
+6. East Asia (including Japan &amp; Mongolia)
+7. South-East Asia
+8. South Asia
+9. The Pacific (excluding Australia &amp; New Zeeland)
+10. The Caribbean (including Belize, Guyana &amp; Suriname, but excluding Cuba, Haiti &amp; the Dominican Republic</t>
   </si>
 </sst>
 </file>
@@ -701,9 +734,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,3086 +1025,3671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B1" sqref="B1:B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>27.700000762939453</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1.4456475973129272</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.86555558443069458</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.3378620445728302</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.42592591047286987</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.63325762748718262</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>31.600000381469727</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.77316790819168091</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.57978403568267822</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>50</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.6419528722763062</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>36.799999237060547</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.1181364059448242</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.34490740299224854</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.81802231073379517</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>11.100000381469727</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.17720380425453186</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>15.600000381469727</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.67223936319351196</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3611111044883728</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.94299602508544922</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>36.599998474121094</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.88603454828262329</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.47222223877906799</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.5052914023399353</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>26</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.9231045246124268</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.8888888955116272</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6.4817242324352264E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>32.200000762939453</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.9524641036987305</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.91666668653488159</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6.6329158842563629E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>13.199999809265137</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.66542887687683105</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.72453701496124268</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>7.5</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.4137195348739624</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.58333331346511841</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>19.799999237060547</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.77766525745391846</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.84272092580795288</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>10.699999809265137</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.36590549349784851</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.33564814925193787</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.83108258247375488</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
         <v>16.700000762939453</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.0824925899505615</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.10121883451938629</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
         <v>39.299999237060547</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.5234390497207642</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.88657408952713013</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3.7209313362836838E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
         <v>8.5</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.37901502847671509</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.15685346722602844</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>53.099998474121094</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1.0551928281784058</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.4583333432674408</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.62036597728729248</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>21.399999618530273</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.18561708927154541</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.61117756366729736</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>9.5</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.63361591100692749</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.55787038803100586</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.15332573652267456</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>9.8999996185302734</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-4.9857914447784424E-2</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.41435185074806213</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.41613799333572388</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
         <v>3.0999999046325684</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-0.74515187740325928</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-0.50228118896484375</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.52776414155960083</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
         <v>6.5</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.47253525257110596</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.70833331346511841</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>20</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-4.6017233282327652E-2</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.41898149251937866</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.38399595022201538</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
         <v>5.5999999046325684</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-1.1856588125228882</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.56236463785171509</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
         <v>30.5</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.96602028608322144</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.89586210250854492</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>26.600000381469727</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-0.84030503034591675</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.36342591047286987</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.39368569850921631</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
         <v>20.299999237060547</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-0.95521014928817749</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.83248484134674072</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
         <v>31.100000381469727</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-0.89644825458526611</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.34722223877906799</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.92750650644302368</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
         <v>25.100000381469727</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.8906822204589844</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.91666668653488159</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>3.1003998592495918E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
         <v>20.799999237060547</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.63480520248413086</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.20113445818424225</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
         <v>7.1999998092651367</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-1.6956965923309326</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.80283826589584351</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
         <v>5.8000001907348633</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-0.17008361220359802</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.61857384443283081</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
         <v>14.899999618530273</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-1.1386486291885376</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.96850413084030151</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
         <v>15.800000190734863</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.4331399202346802</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.75</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>8.8540643453598022E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
         <v>23.399999618530273</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.41447740793228149</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.47222220897674561</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.54739481210708618</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="C39">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="D39">
         <v>1.1879454851150513</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.69444441795349121</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.33244553208351135</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
         <v>19.899999618530273</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-0.29190191626548767</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.4166666567325592</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.53884732723236084</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-0.89169973134994507</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.66105931997299194</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
         <v>7.4000000953674316</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>-1.1086040735244751</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.27777779102325439</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.72681033611297607</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
         <v>10.600000381469727</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-1.4510480165481567</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.1388888955116272</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.91896903514862061</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
         <v>33.299999237060547</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.56050115823745728</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.47453704476356506</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.15052297711372375</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>23.799999237060547</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.31968510150909424</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.61574071645736694</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.36029675602912903</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
         <v>48.900001525878906</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>-0.65776896476745605</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.47222220897674561</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.44600570201873779</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
         <v>12.5</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1.0770184993743896</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.83333331346511841</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.22741256654262543</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>19.5</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1.1521809101104736</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.66898149251937866</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.27005553245544434</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
         <v>8.3999996185302734</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>-0.48802241683006287</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.45857217907905579</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
         <v>39.099998474121094</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>2.0963554382324219</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.97222220897674561</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>1.0031158104538918E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
         <v>12.899999618530273</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.49290314316749573</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
         <v>20.799999237060547</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>-0.40566942095756531</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.31712961196899414</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.81164640188217163</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
         <v>41.599998474121094</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>-1.0584176778793335</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.44212961196899414</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>0.53203469514846802</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
         <v>27.399999618530273</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>-0.47632741928100586</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.37037038803100586</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>0.55463027954101563</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
         <v>24</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>-1.4487596750259399</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.79493862390518188</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
         <v>27.799999237060547</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>-0.47156330943107605</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>0.4861111044883728</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>0.60428202152252197</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
         <v>22</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>-1.5303840637207031</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>0.67955315113067627</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>19</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>1.3728913068771362</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>0.62731480598449707</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>5.9190373867750168E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
         <v>14</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>-0.51148635149002075</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>0.25714272260665894</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
         <v>42.5</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>2.1002733707427979</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>0.97222220897674561</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>3.5452552139759064E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
         <v>26.200000762939453</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>1.4746391773223877</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>0.75231480598449707</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>7.9866237938404083E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
         <v>12.699999809265137</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>-0.8739326000213623</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0.73144072294235229</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
         <v>15</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>-0.50888687372207642</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>0.40277779102325439</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>0.78354102373123169</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>12</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>0.19092972576618195</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>0.14912298321723938</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
         <v>9.3999996185302734</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>-0.689125657081604</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>0.47222220897674561</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>0.61066722869873047</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
         <v>36.5</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>1.8568341732025146</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>0.8888888955116272</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>4.1595734655857086E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
         <v>10.899999618530273</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>5.2244994789361954E-2</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>0.48842591047286987</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0.59084242582321167</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
         <v>8.6999998092651367</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>-0.12437251955270767</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
         <v>21</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>0.36259987950325012</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>0.61342591047286987</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.27354314923286438</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
         <v>33.299999237060547</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>-0.16748471558094025</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
         <v>13.300000190734863</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>-0.9622340202331543</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>0.4166666567325592</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>0.80559360980987549</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
         <v>21.899999618530273</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>-1.3604954481124878</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>0.3888888955116272</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>0.74021708965301514</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
         <v>31.299999237060547</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>-0.61655503511428833</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>0.4166666567325592</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>0.61040961742401123</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
         <v>4.1999998092651367</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>-1.185460090637207</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>0.1388888955116272</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>0.68909311294555664</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
         <v>25.799999237060547</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>-0.94458186626434326</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>0.34027779102325439</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>0.69367903470993042</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>10.100000381469727</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>0.50193107128143311</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>0.6388888955116272</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>0.3799014687538147</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
         <v>39.700000762939453</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>1.7085322141647339</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>0.93518519401550293</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>3.2245386391878128E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
         <v>11.399999618530273</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>-6.3245445489883423E-2</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>0.6111111044883728</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>0.52274864912033081</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
         <v>16.899999618530273</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>-0.34218066930770874</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>0.5</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>0.70306861400604248</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
         <v>3.0999999046325684</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>-1.0563477277755737</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>0.47222223877906799</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>0.70540940761566162</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
         <v>25.299999237060547</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>-1.3347878456115723</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>0.2638888955116272</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>0.81063836812973022</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
         <v>15.699999809265137</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>1.779152512550354</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>0.89120370149612427</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>8.6333923041820526E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
         <v>22.5</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>1.1076629161834717</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>0.80555552244186401</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>0.12672530114650726</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
         <v>31.399999618530273</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>0.37739115953445435</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>0.56944441795349121</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>0.2448393851518631</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
         <v>9.3999996185302734</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>-0.59141582250595093</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>0.22685185074806213</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>0.52517735958099365</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
         <v>12.699999809265137</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>-0.28204277157783508</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>0.5</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>0.19842652976512909</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
         <v>8.1000003814697266</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>1.6015419960021973</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>0.8611111044883728</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>9.8678514361381531E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>25.200000762939453</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>-0.59805172681808472</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>0.84039890766143799</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
         <v>12</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>0.46421316266059875</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>0.53009259700775146</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>0.52776265144348145</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
         <v>19.100000381469727</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>-0.41685760021209717</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>0.3611111044883728</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>0.65156114101409912</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
         <v>16.299999237060547</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>-1.6246415376663208</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>0.32870370149612427</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>0.68934088945388794</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
         <v>16.299999237060547</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>0.99352812767028809</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>0.69444441795349121</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>0.19053231179714203</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
         <v>1.5</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>2.2490577772259712E-2</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>0.56712961196899414</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>0.57566344738006592</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <v>23.299999237060547</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>-0.92691218852996826</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>0.79033356904983521</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95">
         <v>25</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>-0.75135898590087891</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>0.81971031427383423</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
         <v>3.0999999046325684</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>-0.76624852418899536</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>0.47222223877906799</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>0.67853742837905884</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
         <v>26.700000762939453</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>-0.20982334017753601</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>0.29012191295623779</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
         <v>18</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>0.87238293886184692</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>0.62731480598449707</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>0.10998763889074326</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
         <v>11</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>-0.80579406023025513</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>0.25</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>0.81251710653305054</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
         <v>16</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>-1.5086932182312012</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>0.40277779102325439</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>0.73654448986053467</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
         <v>20</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1.7437130212783813</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
         <v>24.100000381469727</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>0.93917733430862427</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>0.57407408952713013</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>0.17598102986812592</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
         <v>28.299999237060547</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1.9064877033233643</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>0.94444441795349121</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
         <v>20.5</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>-0.74012750387191772</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>0.88030564785003662</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
         <v>16.700000762939453</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>-0.28636527061462402</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>0.4583333432674408</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>0.62371212244033813</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106">
         <v>10.399999618530273</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>0.58829551935195923</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>0.6111111044883728</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>0.49809002876281738</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107">
         <v>5.9000000953674316</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>-0.53017222881317139</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>0.74943995475769043</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
         <v>9.5</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>-0.64429616928100586</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>0.25231480598449707</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>0.8071940541267395</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
         <v>14.300000190734863</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>1.1936397552490234</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>0.72222220897674561</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
         <v>25.200000762939453</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>-0.86036944389343262</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>0.75029295682907104</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
         <v>18.799999237060547</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>0.91283804178237915</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>0.60021519660949707</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
         <v>37.400001525878906</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>-0.42282506823539734</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>0.7490270733833313</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
         <v>20.799999237060547</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>0.9354892373085022</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
         <v>14.899999618530273</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>-0.34473979473114014</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>0.5</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>0.60243767499923706</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
         <v>17.799999237060547</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>-0.24783675372600555</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>0.41666668653488159</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>0.68322271108627319</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>17.299999237060547</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>8.1718198955059052E-2</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>0.57426422834396362</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
         <v>17</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>-6.5144658088684082E-2</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>0.53009259700775146</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>0.58141064643859863</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
         <v>39.599998474121094</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>-0.81033384799957275</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>0.3611111044883728</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>0.54222792387008667</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
         <v>1.2000000476837158</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>0.48580750823020935</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>0.58564811944961548</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>0.21377548575401306</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120">
         <v>41.299999237060547</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>0.14784117043018341</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>0.6111111044883728</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>0.26094359159469604</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121">
         <v>5.3000001907348633</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>-1.0090872049331665</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122">
         <v>29.5</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>-0.6495775580406189</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>0.74629628658294678</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
         <v>38.700000762939453</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>1.9804025888442993</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>0.94444441795349121</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>3.5438712686300278E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124">
         <v>0</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>0.1786196231842041</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>0.44143065810203552</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
         <v>29.799999237060547</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>2.0087766647338867</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>0.94444447755813599</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>2.081683836877346E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
         <v>42.400001525878906</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>-0.71224349737167358</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>0.3611111044883728</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>0.68349349498748779</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
         <v>13.300000190734863</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>-0.6457439661026001</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>0.3194444477558136</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>0.76026612520217896</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
         <v>6.6999998092651367</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>-1.0492351055145264</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>0.27777779102325439</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>0.89705204963684082</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129">
         <v>39.599998474121094</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>2.0290482044219971</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>0.97222220897674561</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>1.8058011308312416E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130">
         <v>0</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>-0.28093552589416504</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131">
         <v>3</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>-0.22207868099212646</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132">
+        <v>9</v>
+      </c>
+      <c r="C132">
         <v>0</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>0.27559265494346619</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>135</v>
       </c>
       <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
         <v>20.700000762939453</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>-0.76033848524093628</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>0.45601850748062134</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>0.79506117105484009</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>136</v>
       </c>
       <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
         <v>19.299999237060547</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>-5.952487513422966E-2</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>0.48069745302200317</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>137</v>
       </c>
       <c r="B135">
+        <v>9</v>
+      </c>
+      <c r="C135">
         <v>2.7000000476837158</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>-0.80175596475601196</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>0.4305555522441864</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>0.63105523586273193</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>138</v>
       </c>
       <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
         <v>15</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>-0.67315959930419922</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>0.28472223877906799</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>0.74381226301193237</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>139</v>
       </c>
       <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
         <v>22.299999237060547</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>-0.52106779813766479</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>0.48590141534805298</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
       <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
         <v>27.299999237060547</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>-0.31731075048446655</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>0.52777779102325439</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>0.62571048736572266</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <v>24.299999237060547</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>0.84059596061706543</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>0.66898149251937866</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>0.22013412415981293</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>142</v>
       </c>
       <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
         <v>31.299999237060547</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>1.1375305652618408</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>0.72453701496124268</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>0.12923051416873932</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>143</v>
       </c>
       <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
         <v>13.699999809265137</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>-1.32520592212677</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>0.34490740299224854</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>0.91743338108062744</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>144</v>
       </c>
       <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142">
         <v>38.5</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>-1.1215531826019287</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>0.37329411506652832</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>145</v>
       </c>
       <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
         <v>0</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>0.86400765180587769</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>0.61574071645736694</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>0.47671961784362793</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>146</v>
       </c>
       <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
         <v>13.5</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>0.16536200046539307</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>0.39120370149612427</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>0.48143467307090759</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
       <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
         <v>13.600000381469727</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>-0.74145543575286865</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>0.8134194016456604</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
         <v>63.799999237060547</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>5.6870598345994949E-2</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>0.37355339527130127</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
         <v>6.6999998092651367</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>7.1233600378036499E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
       <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
         <v>16.700000762939453</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>0.5676230788230896</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>151</v>
       </c>
       <c r="B149">
+        <v>10</v>
+      </c>
+      <c r="C149">
         <v>13</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>0.55287396907806396</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>152</v>
       </c>
       <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
         <v>18.299999237060547</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>0.9354892373085022</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>153</v>
       </c>
       <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
         <v>18.200000762939453</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>-0.79288053512573242</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>0.26867765188217163</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
         <v>19.899999618530273</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>0.13218399882316589</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>0.58564811944961548</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>0.47825998067855835</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>155</v>
       </c>
       <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
         <v>43.299999237060547</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>-8.1823833286762238E-2</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>0.3888888955116272</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>0.29676952958106995</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>156</v>
       </c>
       <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
         <v>34</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>-0.14968173205852509</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>0.47222220897674561</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>0.59650313854217529</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>157</v>
       </c>
       <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155">
         <v>43.799999237060547</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>0.12638592720031738</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>0.2318003922700882</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>158</v>
       </c>
       <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
         <v>12.100000381469727</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>-0.92185854911804199</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>0.3055555522441864</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>0.79690927267074585</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>159</v>
       </c>
       <c r="B157">
+        <v>7</v>
+      </c>
+      <c r="C157">
         <v>25.299999237060547</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>1.8247749805450439</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>0.8611111044883728</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>2.9993630945682526E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>160</v>
       </c>
       <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
         <v>18.700000762939453</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>0.49602609872817993</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>0.61342591047286987</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>0.38010042905807495</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>161</v>
       </c>
       <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159">
         <v>24.299999237060547</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>-0.35981839895248413</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>0.52777779102325439</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>162</v>
       </c>
       <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
         <v>35.599998474121094</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>1.001514196395874</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>0.69444441795349121</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>0.24295292794704437</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>163</v>
       </c>
       <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161">
         <v>13.800000190734863</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>-2.3493812084197998</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>8.3333335816860199E-2</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>0.87917399406433105</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>164</v>
       </c>
       <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162">
         <v>41.5</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>0.18279042840003967</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>0.4166666567325592</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>0.32014703750610352</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>165</v>
       </c>
       <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
         <v>31.5</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>-1.4312540292739868</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>0.34722220897674561</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>0.77741509675979614</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>166</v>
       </c>
       <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
         <v>39.700000762939453</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>0.9526442289352417</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>0.74768519401550293</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>6.2638714909553528E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>167</v>
       </c>
       <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
         <v>26.5</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>-1.8229600191116333</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>0.83515095710754395</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>168</v>
       </c>
       <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
         <v>24.299999237060547</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>-1.1674884557723999</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>0.25</v>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>0.75820451974868774</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>169</v>
       </c>
       <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167">
         <v>11.800000190734863</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>-0.13717655837535858</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>0.22890663146972656</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168">
         <v>6.1999998092651367</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>-0.31429645419120789</v>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>0.64621621370315552</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>171</v>
       </c>
       <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
         <v>44.700000762939453</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>1.9920063018798828</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>0.97222220897674561</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>1.1213538236916065E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>172</v>
       </c>
       <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
         <v>31</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>1.9949281215667725</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>0.8888888955116272</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>2.6669135317206383E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171">
         <v>12</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>-1.3621820211410522</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>0.45601850748062134</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>0.90952140092849731</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
         <v>16.899999618530273</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>-1.0110112428665161</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>0.9346657395362854</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>175</v>
       </c>
       <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173">
         <v>6.0999999046325684</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>-0.1913677304983139</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>0.4166666567325592</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>0.78744041919708252</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>176</v>
       </c>
       <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
         <v>17.600000381469727</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>-0.85721611976623535</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>0.25231480598449707</v>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>0.69779306650161743</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>177</v>
       </c>
       <c r="B175">
+        <v>9</v>
+      </c>
+      <c r="C175">
         <v>0</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>-0.14588727056980133</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>178</v>
       </c>
       <c r="B176">
+        <v>10</v>
+      </c>
+      <c r="C176">
         <v>28.600000381469727</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>-9.0805269777774811E-2</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>0.47222223877906799</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>0.19279277324676514</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>179</v>
       </c>
       <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
         <v>17.5</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>0.65222722291946411</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <v>0.66898149251937866</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>180</v>
       </c>
       <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
         <v>31.299999237060547</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>-0.1096772700548172</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>0.58333331346511841</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>0.21816478669643402</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>181</v>
       </c>
       <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
         <v>14.399999618530273</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>5.1234103739261627E-3</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>0.46759259700775146</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>0.59571617841720581</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>182</v>
       </c>
       <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
         <v>26.399999618530273</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>-1.3645720481872559</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>0.9191325306892395</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>183</v>
       </c>
       <c r="B181">
+        <v>9</v>
+      </c>
+      <c r="C181">
         <v>6.6999998092651367</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>0.37363243103027344</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>184</v>
       </c>
       <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
         <v>35</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>-0.38838008046150208</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>0.70479017496109009</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>185</v>
       </c>
       <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
         <v>11.699999809265137</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>-0.79097157716751099</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <v>0.3888888955116272</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>0.71715062856674194</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>186</v>
       </c>
       <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
         <v>33.299999237060547</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>-5.2508972585201263E-2</v>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>0.77795761823654175</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>187</v>
       </c>
       <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185">
         <v>14.899999618530273</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>-0.66251629590988159</v>
       </c>
-      <c r="D185">
+      <c r="E185">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>0.74806004762649536</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>188</v>
       </c>
       <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186">
         <v>22.600000381469727</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>1.8895714282989502</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>0.86342591047286987</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>7.5983524322509766E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>189</v>
       </c>
       <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187">
         <v>36</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>-0.39512407779693604</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>0.47222220897674561</v>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>0.55561012029647827</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>190</v>
       </c>
       <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
         <v>19.299999237060547</v>
       </c>
-      <c r="C188">
+      <c r="D188">
         <v>1.6104730367660522</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>0.81018519401550293</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>5.9521477669477463E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>191</v>
       </c>
       <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
         <v>18.899999618530273</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <v>-0.54725277423858643</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>0.36342594027519226</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>0.42997181415557861</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>192</v>
       </c>
       <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
         <v>16.200000762939453</v>
       </c>
-      <c r="C190">
+      <c r="D190">
         <v>0.71057534217834473</v>
       </c>
-      <c r="D190">
+      <c r="E190">
         <v>0.53009259700775146</v>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>7.3088102042675018E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>193</v>
       </c>
       <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
         <v>22</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>-1.1296617984771729</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>0.86859303712844849</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>194</v>
       </c>
       <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
         <v>17</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>-1.9163243770599365</v>
       </c>
-      <c r="D192">
+      <c r="E192">
         <v>0.1944444477558136</v>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>0.88845729827880859</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>195</v>
       </c>
       <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193">
         <v>6.0999999046325684</v>
       </c>
-      <c r="C193">
+      <c r="D193">
         <v>0.71739780902862549</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>196</v>
       </c>
       <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
         <v>0.30000001192092896</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <v>-1.200264573097229</v>
       </c>
-      <c r="D194">
+      <c r="E194">
         <v>0.27546295523643494</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>0.89060133695602417</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>197</v>
       </c>
       <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
         <v>10.800000190734863</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>-0.2365490198135376</v>
       </c>
-      <c r="D195">
+      <c r="E195">
         <v>0.4444444477558136</v>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>0.30587440729141235</v>
       </c>
     </row>
@@ -4074,76 +4700,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>203</v>
       </c>
     </row>
